--- a/test/test_cases_2.xlsx
+++ b/test/test_cases_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhn2\Desktop\swift act challenge\speedcontrol\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C17A9E-FFD9-4694-8E65-266BB6FD2D9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D23668-CFF0-4E5C-884C-64DC4C0497C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -161,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -183,7 +189,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -192,11 +198,13 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -217,6 +225,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -235,42 +256,108 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -280,8 +367,55 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -289,288 +423,170 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,527 +872,514 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="26">
+      <c r="D5" s="19"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="29" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="28" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="30">
+      <c r="E9" s="52"/>
+      <c r="F9" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="29" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="F10" s="31"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35">
+      <c r="E11" s="49"/>
+      <c r="F11" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="28" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-    </row>
-    <row r="13" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="29" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="29" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="28" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="29" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="16" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="28" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="33">
+      <c r="E21" s="52"/>
+      <c r="F21" s="55">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="29" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="F22" s="33"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="56"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35">
+      <c r="E23" s="49"/>
+      <c r="F23" s="50">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="28" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-    </row>
-    <row r="25" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="29" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="28" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="28" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="19"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="29" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="33">
+      <c r="E32" s="52"/>
+      <c r="F32" s="55">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="28" t="s">
+    <row r="33" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="F33" s="33"/>
-    </row>
-    <row r="34" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="19"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="29" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="56"/>
+    </row>
+    <row r="34" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35">
+      <c r="E34" s="49"/>
+      <c r="F34" s="50">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="28" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="19"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="29" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="28" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="19"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="29" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="F42" s="32"/>
+      <c r="F42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F23:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F41"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="F11:F20"/>
@@ -1386,10 +1389,30 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F23:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F41"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/test/test_cases_2.xlsx
+++ b/test/test_cases_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhn2\Desktop\swift act challenge\speedcontrol\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D23668-CFF0-4E5C-884C-64DC4C0497C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499353F-112F-4B93-803A-A66B99A29D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -419,21 +419,134 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,95 +567,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,32 +617,136 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,7 +1032,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,20 +1046,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -916,503 +1076,503 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9">
+      <c r="D5" s="57"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="71"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="43" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="57"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="71"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="71"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="22">
+      <c r="E12" s="65"/>
+      <c r="F12" s="66">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="43" t="s">
+    <row r="13" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="8" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="60"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="60"/>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="60"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="60"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
+      <c r="B20" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="61"/>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D23" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50">
+      <c r="E23" s="27"/>
+      <c r="F23" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="30" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="30" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="8" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="54"/>
+    </row>
+    <row r="34" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="60"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="60"/>
+    </row>
+    <row r="37" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="60"/>
+    </row>
+    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="30" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="60"/>
+    </row>
+    <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33" t="s">
+      <c r="D39" s="39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="60"/>
+    </row>
+    <row r="40" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
-      <c r="B20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="48"/>
-    </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="56"/>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="48"/>
-    </row>
-    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="56"/>
-    </row>
-    <row r="34" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50">
+      <c r="D40" s="39"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="60"/>
+    </row>
+    <row r="41" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="F42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A5:A16"/>
-    <mergeCell ref="F11:F20"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F23:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F41"/>
     <mergeCell ref="A29:A40"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F23:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F41"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
